--- a/storage/All Juniors 2025.xlsx
+++ b/storage/All Juniors 2025.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\handicapping\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D9F93E-94BA-4A08-B58C-103283F66FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3777B0-C946-475B-893C-85F251136046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1B04B689-A147-4D5F-8397-00038A512520}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$29</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -660,7 +663,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,6 +1610,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J29" xr:uid="{F99B04E8-596C-475A-9970-BC7667B7651B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>